--- a/src/test/java/day08_cookies_webTables/ulkeler.xlsx
+++ b/src/test/java/day08_cookies_webTables/ulkeler.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171DADE8-34E9-EC44-9CEF-6DEBC3F5378A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20BBD3A-C04B-E142-81E6-C6E6D09A88C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1520" windowWidth="19940" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="1520" windowWidth="19940" windowHeight="19260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="573">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1742,9 +1742,6 @@
   </si>
   <si>
     <t>Zimbabve</t>
-  </si>
-  <si>
-    <t>rgf</t>
   </si>
 </sst>
 </file>
@@ -2187,8 +2184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2251,9 +2248,7 @@
       <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>573</v>
-      </c>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -4883,8 +4878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/test/java/day08_cookies_webTables/ulkeler.xlsx
+++ b/src/test/java/day08_cookies_webTables/ulkeler.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20BBD3A-C04B-E142-81E6-C6E6D09A88C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5453DE5F-272B-C049-9AEC-6195C0799599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1520" windowWidth="19940" windowHeight="19260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="1520" windowWidth="19940" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="574">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1742,12 +1742,16 @@
   </si>
   <si>
     <t>Zimbabve</t>
+  </si>
+  <si>
+    <t>Nufus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1798,7 +1802,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1858,22 +1862,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1897,9 +1890,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2184,16 +2174,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B171" sqref="B171"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="25.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2206,8 +2196,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E1" t="s" s="0">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2220,8 +2213,11 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E2" t="n" s="0">
+        <v>1500000.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2235,7 +2231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2248,9 +2244,8 @@
       <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -2264,7 +2259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2278,7 +2273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2292,7 +2287,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2306,7 +2301,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2320,7 +2315,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2333,8 +2328,11 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E10" t="n" s="0">
+        <v>250000.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -2348,7 +2346,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2362,7 +2360,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -2376,7 +2374,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -2390,7 +2388,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -2403,8 +2401,11 @@
       <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E15" t="n" s="0">
+        <v>54000.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -4878,73 +4879,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3">
+      <c r="B3" s="0">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7">
+      <c r="B7" s="0">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>6</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="0">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13">
+      <c r="B13" s="0">
         <v>7</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="0">
         <v>4</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E20">
+      <c r="E20" s="0">
         <v>1</v>
       </c>
     </row>
